--- a/data/trans_orig/P25C_R2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R2_2023-Clase-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3151</v>
+        <v>4108</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005326749897081379</v>
+        <v>0.005326749897081378</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02412092295500691</v>
+        <v>0.03144663572978278</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>3091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7367</v>
+        <v>7498</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0445190359961728</v>
+        <v>0.04451903599617278</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01504704180649568</v>
+        <v>0.01494127690478681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.10610923932241</v>
+        <v>0.1080049490678578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>3786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8652</v>
+        <v>8737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01892829965166892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006755813903002297</v>
+        <v>0.006789326397591394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04324974567866915</v>
+        <v>0.0436756473389775</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>129924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127469</v>
+        <v>126512</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>130620</v>
@@ -821,7 +821,7 @@
         <v>0.9946732501029186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9758790770449928</v>
+        <v>0.9685533642702179</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>66334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62058</v>
+        <v>61927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68380</v>
+        <v>68388</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9554809640038273</v>
+        <v>0.9554809640038269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8938907606775898</v>
+        <v>0.8919950509321416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9849529581935043</v>
+        <v>0.9850587230952129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -854,19 +854,19 @@
         <v>196258</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>191392</v>
+        <v>191307</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198693</v>
+        <v>198686</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.981071700348331</v>
+        <v>0.9810717003483311</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9567502543213308</v>
+        <v>0.9563243526610226</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9932441860969977</v>
+        <v>0.9932106736024086</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3465</v>
+        <v>5768</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006650584591608034</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0338515326052332</v>
+        <v>0.05635578773491146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -979,19 +979,19 @@
         <v>3449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7015</v>
+        <v>7271</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05488534503548868</v>
+        <v>0.05488534503548867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02113573303262896</v>
+        <v>0.02080486438355625</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1116350453666038</v>
+        <v>0.1157095500088874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1000,19 +1000,19 @@
         <v>4129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1402</v>
+        <v>1372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8319</v>
+        <v>9014</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02499878314303629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008488981960966299</v>
+        <v>0.008307703464720992</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0503635945146516</v>
+        <v>0.05456902621215647</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>101670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>98886</v>
+        <v>96583</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>102351</v>
@@ -1038,7 +1038,7 @@
         <v>0.9933494154083921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9661484673947668</v>
+        <v>0.9436442122650924</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>59387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55821</v>
+        <v>55565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61508</v>
+        <v>61529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9451146549645114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8883649546333962</v>
+        <v>0.8842904499911125</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9788642669673711</v>
+        <v>0.9791951356164437</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>198</v>
@@ -1071,19 +1071,19 @@
         <v>161059</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>156869</v>
+        <v>156174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>163786</v>
+        <v>163816</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9750012168569638</v>
+        <v>0.9750012168569637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9496364054853486</v>
+        <v>0.9454309737878435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9915110180390337</v>
+        <v>0.991692296535279</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>3241</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7857</v>
+        <v>7860</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03086859915380032</v>
+        <v>0.03086859915380031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007962508031923197</v>
+        <v>0.007725576443161864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07482603425103308</v>
+        <v>0.07485661401302077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3120</v>
+        <v>3533</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02930338297077366</v>
+        <v>0.02930338297077365</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.137571782672514</v>
+        <v>0.1557720967731605</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1217,19 +1217,19 @@
         <v>3906</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1377</v>
+        <v>1276</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8588</v>
+        <v>8224</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03059054584479774</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01078846431735721</v>
+        <v>0.009990003568423727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06726378883513202</v>
+        <v>0.06441317343381861</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>101756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97140</v>
+        <v>97137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>104161</v>
+        <v>104186</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9691314008461995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9251739657489668</v>
+        <v>0.9251433859869793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9920374919680768</v>
+        <v>0.9922744235568381</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -1267,16 +1267,16 @@
         <v>22017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19562</v>
+        <v>19149</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>22682</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9706966170292264</v>
+        <v>0.9706966170292262</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8624282173274873</v>
+        <v>0.8442279032268388</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>123773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>119091</v>
+        <v>119455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126302</v>
+        <v>126403</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9694094541552023</v>
+        <v>0.9694094541552024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.932736211164868</v>
+        <v>0.9355868265661812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9892115356826428</v>
+        <v>0.9900099964315762</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>5347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2342</v>
+        <v>2234</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11493</v>
+        <v>10680</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0253494494163318</v>
+        <v>0.02534944941633181</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01110292375132984</v>
+        <v>0.01059257577229456</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05448943076710153</v>
+        <v>0.05063668608283388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1413,19 +1413,19 @@
         <v>2460</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5899</v>
+        <v>5738</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02890864570162579</v>
+        <v>0.0289086457016258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007134434988528532</v>
+        <v>0.007262349433883043</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0693114568227569</v>
+        <v>0.06741746786323634</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1434,19 +1434,19 @@
         <v>7807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4186</v>
+        <v>3957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13815</v>
+        <v>14288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02637272950432853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0141415297086538</v>
+        <v>0.01336675608167106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04666635893222131</v>
+        <v>0.04826615881395397</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>205576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199430</v>
+        <v>200243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208581</v>
+        <v>208689</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9746505505836681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9455105692328983</v>
+        <v>0.9493633139171663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9888970762486701</v>
+        <v>0.9894074242277054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -1484,19 +1484,19 @@
         <v>82651</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79212</v>
+        <v>79373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84504</v>
+        <v>84493</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9710913542983741</v>
+        <v>0.9710913542983742</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9306885431772431</v>
+        <v>0.9325825321367638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9928655650114713</v>
+        <v>0.9927376505661171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>357</v>
@@ -1505,19 +1505,19 @@
         <v>288227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>282219</v>
+        <v>281746</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>291848</v>
+        <v>292077</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9736272704956713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.953333641067779</v>
+        <v>0.951733841186046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9858584702913463</v>
+        <v>0.986633243918329</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>2865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6894</v>
+        <v>7706</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03039778498414053</v>
+        <v>0.03039778498414052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007654187603881236</v>
+        <v>0.008454771162625508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07315215788546878</v>
+        <v>0.08177606063531051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1630,19 +1630,19 @@
         <v>4368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1868</v>
+        <v>1952</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8521</v>
+        <v>8495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0547317433562237</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02340850642420144</v>
+        <v>0.02445819008037011</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1067551202015905</v>
+        <v>0.1064283944837067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1651,19 +1651,19 @@
         <v>7233</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3797</v>
+        <v>3719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12635</v>
+        <v>12349</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04155653146452</v>
+        <v>0.04155653146451999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02181707411439257</v>
+        <v>0.02136716277283004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07259338336529413</v>
+        <v>0.07095144721156688</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>91373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87344</v>
+        <v>86532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93517</v>
+        <v>93441</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9696022150158595</v>
+        <v>0.9696022150158593</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.926847842114531</v>
+        <v>0.9182239393646897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9923458123961189</v>
+        <v>0.9915452288373745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -1701,19 +1701,19 @@
         <v>75447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71294</v>
+        <v>71320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77947</v>
+        <v>77863</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9452682566437764</v>
+        <v>0.9452682566437762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8932448797984093</v>
+        <v>0.8935716055162927</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9765914935757986</v>
+        <v>0.9755418099196298</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>212</v>
@@ -1722,19 +1722,19 @@
         <v>166820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161418</v>
+        <v>161704</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>170256</v>
+        <v>170334</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9584434685354801</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9274066166347057</v>
+        <v>0.9290485527884331</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9781829258856074</v>
+        <v>0.9786328372271696</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4714</v>
+        <v>4765</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.215039338398753</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7071995146843909</v>
+        <v>0.7147599439986223</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2662</v>
+        <v>2542</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01304242415549498</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06974364072629763</v>
+        <v>0.06661292391535147</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1868,19 +1868,19 @@
         <v>1931</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5770</v>
+        <v>5709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04307465498744086</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01062642805075367</v>
+        <v>0.01080052978264163</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1286920382732624</v>
+        <v>0.1273459616804506</v>
       </c>
     </row>
     <row r="20">
@@ -1918,16 +1918,16 @@
         <v>37669</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35505</v>
+        <v>35625</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>38167</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9869575758445052</v>
+        <v>0.9869575758445049</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9302563592737026</v>
+        <v>0.9333870760846483</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1939,19 +1939,19 @@
         <v>42902</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39063</v>
+        <v>39124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44357</v>
+        <v>44349</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9569253450125591</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8713079617267376</v>
+        <v>0.8726540383195492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9893735719492462</v>
+        <v>0.9891994702173584</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>14262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8825</v>
+        <v>9036</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22093</v>
+        <v>22097</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02194904928335478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01358164243909465</v>
+        <v>0.01390631584339669</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03400064144173951</v>
+        <v>0.03400544790944347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2064,19 +2064,19 @@
         <v>14531</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9110</v>
+        <v>9174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21819</v>
+        <v>21371</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04058479607506796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02544343043547854</v>
+        <v>0.02562264874749839</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06094050502606229</v>
+        <v>0.05969063335644557</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -2085,19 +2085,19 @@
         <v>28793</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20996</v>
+        <v>20806</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38922</v>
+        <v>38821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02856946728507529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02083324888594613</v>
+        <v>0.02064456311887836</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03861932177441373</v>
+        <v>0.03851956722875093</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>635534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>627703</v>
+        <v>627699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>640971</v>
+        <v>640760</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9780509507166453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9659993585582604</v>
+        <v>0.9659945520905565</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9864183575609055</v>
+        <v>0.9860936841566033</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>495</v>
@@ -2135,19 +2135,19 @@
         <v>343505</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>336217</v>
+        <v>336665</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>348926</v>
+        <v>348862</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9594152039249321</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9390594949739375</v>
+        <v>0.9403093666435546</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9745565695645213</v>
+        <v>0.9743773512525015</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1224</v>
@@ -2156,19 +2156,19 @@
         <v>979038</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>968909</v>
+        <v>969010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>986835</v>
+        <v>987025</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9714305327149247</v>
+        <v>0.9714305327149246</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9613806782255861</v>
+        <v>0.9614804327712491</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9791667511140536</v>
+        <v>0.9793554368811217</v>
       </c>
     </row>
     <row r="24">
